--- a/templates/comision_especial.xlsx
+++ b/templates/comision_especial.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COMISIÓN-'!$A$22:$N$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'COMISIÓN-'!$A$1:$U$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'COMISIÓN-'!$A$1:$AA$52</definedName>
     <definedName name="REGISTRA_ASISTENCIA">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -630,6 +630,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,6 +664,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -671,10 +675,10 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,51 +687,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1000,7 +978,7 @@
   <dimension ref="A2:AH1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G22"/>
+      <selection activeCell="AA52" sqref="A1:AA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1176,21 +1154,21 @@
       <c r="E6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
       <c r="U6" s="12"/>
       <c r="V6" s="13"/>
       <c r="W6" s="14"/>
@@ -1216,19 +1194,19 @@
       <c r="G7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
       <c r="U7" s="16"/>
       <c r="V7" s="17"/>
       <c r="W7" s="1"/>
@@ -1254,19 +1232,19 @@
       <c r="G8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
       <c r="U8" s="16"/>
       <c r="V8" s="17"/>
       <c r="W8" s="1"/>
@@ -1292,19 +1270,19 @@
       <c r="G9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
       <c r="U9" s="16"/>
       <c r="V9" s="17"/>
       <c r="W9" s="1"/>
@@ -1330,19 +1308,19 @@
       <c r="G10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
       <c r="U10" s="18"/>
       <c r="V10" s="17"/>
       <c r="W10" s="1"/>
@@ -1368,19 +1346,19 @@
       <c r="G11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
       <c r="U11" s="18"/>
       <c r="V11" s="17"/>
       <c r="W11" s="1"/>
@@ -1406,19 +1384,19 @@
       <c r="G12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
       <c r="U12" s="19"/>
       <c r="V12" s="17"/>
       <c r="W12" s="1"/>
@@ -1460,97 +1438,97 @@
     <row r="14" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="39"/>
       <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="43"/>
       <c r="U15" s="22"/>
     </row>
     <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="46"/>
       <c r="U16" s="22"/>
     </row>
     <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="49"/>
       <c r="U17" s="22"/>
     </row>
     <row r="18" spans="1:34" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1577,7 +1555,7 @@
       <c r="U18" s="17"/>
     </row>
     <row r="19" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="26"/>
@@ -1586,7 +1564,7 @@
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="26"/>
@@ -1594,7 +1572,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
-      <c r="N19" s="35" t="s">
+      <c r="N19" s="36" t="s">
         <v>11</v>
       </c>
       <c r="O19" s="26"/>
@@ -1652,52 +1630,52 @@
       <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
     </row>
     <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
@@ -1713,29 +1691,29 @@
       <c r="AH23" s="23"/>
     </row>
     <row r="24" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="49" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
@@ -2755,17 +2733,18 @@
     <mergeCell ref="H8:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="sindi">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
       <formula>NOT(ISERROR(SEARCH(("sindi"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="con">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="con">
       <formula>NOT(ISERROR(SEARCH("con",H12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/comision_especial.xlsx
+++ b/templates/comision_especial.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COMISIÓN-'!$A$22:$N$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'COMISIÓN-'!$A$1:$AA$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'COMISIÓN-'!$A$1:$U$24</definedName>
     <definedName name="REGISTRA_ASISTENCIA">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -977,8 +977,8 @@
   </sheetPr>
   <dimension ref="A2:AH1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="AA52" sqref="A1:AA52"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2743,8 +2743,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/comision_especial.xlsx
+++ b/templates/comision_especial.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COMISIÓN-'!$A$22:$N$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'COMISIÓN-'!$A$1:$U$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'COMISIÓN-'!$A$1:$V$24</definedName>
     <definedName name="REGISTRA_ASISTENCIA">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,30 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>DEPARTAMENTO</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
     <t>Fecha:</t>
-  </si>
-  <si>
-    <t>NOMBRAMIENTO</t>
-  </si>
-  <si>
-    <t>CARGO</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN</t>
-  </si>
-  <si>
-    <t>TIPO</t>
   </si>
   <si>
     <t>Motivo:</t>
@@ -73,6 +55,27 @@
   <si>
     <t>Fecha de Comisión:</t>
   </si>
+  <si>
+    <t xml:space="preserve">NOMBRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRAMIENTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTAMENTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,23 +112,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="28"/>
       <color rgb="FF2F5496"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -163,37 +152,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -212,31 +173,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF757070"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <i/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -266,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -286,29 +236,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -556,150 +483,148 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,10 +900,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AH1000"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:T7"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -998,744 +923,652 @@
     <col min="22" max="34" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="18">
+        <v>10</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="4"/>
     </row>
-    <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
+    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="4"/>
     </row>
-    <row r="4" spans="1:34" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+    <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="4"/>
     </row>
-    <row r="5" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6" t="s">
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="4"/>
     </row>
-    <row r="6" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
+    <row r="20" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="4"/>
     </row>
-    <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
+    <row r="21" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="4"/>
     </row>
-    <row r="8" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="4"/>
     </row>
-    <row r="9" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="4"/>
     </row>
-    <row r="10" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
+    <row r="24" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="4"/>
     </row>
-    <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-    </row>
-    <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-    </row>
-    <row r="13" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-    </row>
-    <row r="14" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="21"/>
-    </row>
-    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="22"/>
-    </row>
-    <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="22"/>
-    </row>
-    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="22"/>
-    </row>
-    <row r="18" spans="1:34" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-    </row>
-    <row r="19" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-    </row>
-    <row r="20" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-    </row>
-    <row r="21" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-    </row>
-    <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-    </row>
-    <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-    </row>
-    <row r="24" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-    </row>
-    <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2705,7 +2538,10 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="42">
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="H15:T17"/>
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="N24:U24"/>
     <mergeCell ref="A22:G22"/>
@@ -2715,22 +2551,36 @@
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="N23:U23"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="H15:T17"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="O1:V4"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A20:U21"/>
+    <mergeCell ref="A18:U18"/>
+    <mergeCell ref="U5:U14"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="H8:T8"/>
     <mergeCell ref="H9:T9"/>
     <mergeCell ref="H10:T10"/>
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="N19:U19"/>
     <mergeCell ref="H11:T11"/>
     <mergeCell ref="H12:T12"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
@@ -2744,7 +2594,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/comision_especial.xlsx
+++ b/templates/comision_especial.xlsx
@@ -166,13 +166,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="9"/>
       <color theme="1"/>
@@ -180,13 +173,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -483,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -491,72 +492,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -566,66 +612,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,8 +901,8 @@
   </sheetPr>
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -924,641 +923,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="14"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="26"/>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="18">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="21">
         <v>10</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="19" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="14"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="26"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="20" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="14"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="26"/>
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="22" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="14"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="26"/>
       <c r="V8" s="4"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="22" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="14"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="26"/>
       <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="22" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="14"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="26"/>
       <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="22" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="14"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="26"/>
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="22" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="14"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="26"/>
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="14"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="26"/>
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="62" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="27" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="14"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="26"/>
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="36" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="52"/>
       <c r="U15" s="3"/>
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="32"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="55"/>
       <c r="U16" s="3"/>
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58"/>
       <c r="U17" s="3"/>
       <c r="V17" s="4"/>
     </row>
     <row r="18" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="24" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="24" t="s">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
       <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
       <c r="V21" s="4"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
       <c r="V22" s="4"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47" t="s">
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
       <c r="V23" s="4"/>
     </row>
     <row r="24" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="66" t="s">
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
       <c r="V24" s="4"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2539,9 +2538,39 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="N19:U19"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A13:T13"/>
     <mergeCell ref="C15:G17"/>
     <mergeCell ref="H15:T17"/>
     <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="O1:V4"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="U5:U14"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A20:U21"/>
+    <mergeCell ref="A18:U18"/>
+    <mergeCell ref="H19:M19"/>
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="N24:U24"/>
     <mergeCell ref="A22:G22"/>
@@ -2551,36 +2580,6 @@
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="N23:U23"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="O1:V4"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="A14:B17"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A20:U21"/>
-    <mergeCell ref="A18:U18"/>
-    <mergeCell ref="U5:U14"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:U19"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">

--- a/templates/comision_especial.xlsx
+++ b/templates/comision_especial.xlsx
@@ -496,86 +496,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -615,16 +550,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,7 +905,7 @@
   </sheetPr>
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="N24" sqref="N24:U24"/>
     </sheetView>
   </sheetViews>
@@ -923,477 +927,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
     </row>
     <row r="2" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
     </row>
     <row r="4" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
     </row>
     <row r="5" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="26"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="45"/>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="21">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="39">
         <v>10</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="23" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="26"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="45"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="27" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="26"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="45"/>
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="29" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="26"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="45"/>
       <c r="V8" s="4"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="29" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="26"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="45"/>
       <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="29" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="26"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="45"/>
       <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="29" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="26"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="45"/>
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="29" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="26"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="45"/>
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="26"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="45"/>
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="34" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="26"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="45"/>
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="41" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="50" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
       <c r="U15" s="3"/>
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="55"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="32"/>
       <c r="U16" s="3"/>
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="58"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
       <c r="U17" s="3"/>
       <c r="V17" s="4"/>
     </row>
     <row r="18" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1427,120 +1431,120 @@
       <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
       <c r="V21" s="4"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
       <c r="V22" s="4"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="16" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="17" t="s">
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
       <c r="V23" s="4"/>
     </row>
     <row r="24" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="9" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="50" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="64"/>
@@ -1548,16 +1552,16 @@
       <c r="K24" s="64"/>
       <c r="L24" s="64"/>
       <c r="M24" s="65"/>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
       <c r="V24" s="4"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2538,20 +2542,18 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="N19:U19"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="H15:T17"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="A20:U21"/>
+    <mergeCell ref="A18:U18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:U24"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:U22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:U23"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="O1:V4"/>
     <mergeCell ref="A2:N4"/>
@@ -2568,18 +2570,20 @@
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A20:U21"/>
-    <mergeCell ref="A18:U18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:U24"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:U22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:U23"/>
-    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="N19:U19"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="H15:T17"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A14:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
